--- a/playlist_per_work/vos_002kluc01.xlsx
+++ b/playlist_per_work/vos_002kluc01.xlsx
@@ -483,21 +483,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#he,-ho-onsikokx-kalandarina,-le,-bo,-bonsibokx,
-malandarina-ronsikfokx</t>
+          <t>#he,-sa,-vo,-been-marketroy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>He, ho onsikokx Kalandarina, Le, bo, bonsibokx,
-malandarina Ronsikfokx</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>He, Sa, vo, been marketroy</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -511,19 +505,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#he,-sa,-vo,-been-marketroy</t>
+          <t>#inquam-koenat,-rekoolatt,-katan,-extra,-struynalibol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>He, Sa, vo, been marketroy</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Inquam koenat, Rekoolatt, katan, Extra, struynalibol</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -537,19 +527,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#inquam-koenat,-rekoolatt,-katan,-extra,-struynalibol</t>
+          <t>#hier-leit-hy-die-het-spijt-dat-hem-de-doodt-verriedt:</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Inquam koenat, Rekoolatt, katan, Extra, struynalibol</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Hier leit hy die het spijt dat hem de doodt verriedt:</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -563,19 +549,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#hier-leit-hy-die-het-spijt-dat-hem-de-doodt-verriedt:</t>
+          <t>#he,-ho-onsikokx-kalandarina,-le,-bo,-bonsibokx,
+malandarina-ronsikfokx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hier leit hy die het spijt dat hem de doodt verriedt:</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>He, ho onsikokx Kalandarina, Le, bo, bonsibokx,
+malandarina Ronsikfokx</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>

--- a/playlist_per_work/vos_002kluc01.xlsx
+++ b/playlist_per_work/vos_002kluc01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>new_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>speaker_variant</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>is_prefered</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>is_new</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>is_error</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gender (Male/Female/Unknown/Other)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -486,16 +491,17 @@
           <t>#he,-sa,-vo,-been-marketroy</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>He, Sa, vo, been marketroy</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,19 +511,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#inquam-koenat,-rekoolatt,-katan,-extra,-struynalibol</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Inquam koenat, Rekoolatt, katan, Extra, struynalibol</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>#hier-leit-hy-die-het-spijt-dat-hem-de-doodt-verriedt:</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hier leit hy die het spijt dat hem de doodt verriedt:</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -527,19 +534,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#hier-leit-hy-die-het-spijt-dat-hem-de-doodt-verriedt:</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Hier leit hy die het spijt dat hem de doodt verriedt:</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>#he,-ho-onsikokx-kalandarina,-le,-bo,-bonsibokx,
+malandarina-ronsikfokx</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>He, ho onsikokx Kalandarina, Le, bo, bonsibokx,
+malandarina Ronsikfokx</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -549,21 +559,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#he,-ho-onsikokx-kalandarina,-le,-bo,-bonsibokx,
-malandarina-ronsikfokx</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>He, ho onsikokx Kalandarina, Le, bo, bonsibokx,
-malandarina Ronsikfokx</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>#inquam-koenat,-rekoolatt,-katan,-extra,-struynalibol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Inquam koenat, Rekoolatt, katan, Extra, struynalibol</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
